--- a/EDITED_INPUT.xlsx
+++ b/EDITED_INPUT.xlsx
@@ -6854,10 +6854,8 @@
           <t>SYMA X8HC od 1 650 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>1650</t>
-        </is>
+      <c r="J9" t="n">
+        <v>1650</v>
       </c>
     </row>
     <row r="10" ht="66" customHeight="1" s="105">
@@ -6900,7 +6898,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>bez ceny</t>
         </is>
       </c>
     </row>
@@ -6967,10 +6965,8 @@
           <t>Flytec TY930 2.4G 4CH - RC_20699009 od 1 190 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>1190</t>
-        </is>
+      <c r="J12" t="n">
+        <v>1190</v>
       </c>
     </row>
     <row r="13" ht="66" customHeight="1" s="105">
@@ -7038,7 +7034,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>23094187</t>
+          <t>bez ceny</t>
         </is>
       </c>
     </row>
@@ -7078,10 +7074,8 @@
           <t>Skládací selfie dron HC-628 dream fly - RC_64557 od 1 222 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>1222</t>
-        </is>
+      <c r="J15" t="n">
+        <v>1222</v>
       </c>
     </row>
     <row r="16" ht="66" customHeight="1" s="105">
@@ -7120,10 +7114,8 @@
           <t>WISDOM FLY 34cm MASTER PRO S KAMEROU RCskladem_23115943 od 1 680 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>1680</t>
-        </is>
+      <c r="J16" t="n">
+        <v>1680</v>
       </c>
     </row>
     <row r="17" ht="78.75" customHeight="1" s="105">
@@ -7164,7 +7156,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>23117570</t>
+          <t>bez ceny</t>
         </is>
       </c>
     </row>
@@ -7235,10 +7227,8 @@
           <t>SYMA X8HW od 2 176 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>2176</t>
-        </is>
+      <c r="J19" t="n">
+        <v>2176</v>
       </c>
     </row>
     <row r="20" ht="66" customHeight="1" s="105">
@@ -7279,10 +7269,8 @@
           <t>SYMA X8HG od 2 460 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>2460</t>
-        </is>
+      <c r="J20" t="n">
+        <v>2460</v>
       </c>
     </row>
     <row r="21" ht="66" customHeight="1" s="105">
@@ -7323,10 +7311,8 @@
           <t>SYMA X54HW od 1 490 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>1490</t>
-        </is>
+      <c r="J21" t="n">
+        <v>1490</v>
       </c>
     </row>
     <row r="22" ht="72" customHeight="1" s="105">
@@ -7394,7 +7380,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>23112987</t>
+          <t>bez ceny</t>
         </is>
       </c>
     </row>
@@ -7434,10 +7420,8 @@
           <t>JXD 523 TRACKER SELFIE DRON RCskladem_23113151 ZLATÁ od 1 790 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>1790</t>
-        </is>
+      <c r="J24" t="n">
+        <v>1790</v>
       </c>
     </row>
     <row r="25" ht="66.75" customHeight="1" s="105">
@@ -7478,7 +7462,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>bez ceny</t>
         </is>
       </c>
     </row>
@@ -7520,10 +7504,8 @@
           <t>Jie-star Dron X5C 32cm, Nejlevnější dron s HD kamerou RCskladem_23119850 od 1 190 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>1190</t>
-        </is>
+      <c r="J26" t="n">
+        <v>1190</v>
       </c>
     </row>
     <row r="27" ht="66.75" customHeight="1" s="105">
@@ -7566,7 +7548,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>bez ceny</t>
         </is>
       </c>
     </row>
@@ -7610,7 +7592,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>23088328</t>
+          <t>bez ceny</t>
         </is>
       </c>
     </row>
@@ -7676,10 +7658,8 @@
           <t>SJRC S70W RCskladem_23117779 od 5 490 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>5490</t>
-        </is>
+      <c r="J30" t="n">
+        <v>5490</v>
       </c>
     </row>
     <row r="31" ht="66.75" customHeight="1" s="105">
@@ -7722,10 +7702,8 @@
           <t>SYMA X8CW od 1 899 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>1899</t>
-        </is>
+      <c r="J31" t="n">
+        <v>1899</v>
       </c>
     </row>
     <row r="32" ht="66.75" customHeight="1" s="105">
@@ -7766,10 +7744,8 @@
           <t>SYMA X5Csw od 1 490 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>1490</t>
-        </is>
+      <c r="J32" t="n">
+        <v>1490</v>
       </c>
     </row>
     <row r="33" ht="66.75" customHeight="1" s="105">
@@ -7810,10 +7786,8 @@
           <t>SYMA X8G od 1 480 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>1480</t>
-        </is>
+      <c r="J33" t="n">
+        <v>1480</v>
       </c>
     </row>
     <row r="34" ht="66.75" customHeight="1" s="105">
@@ -7852,10 +7826,8 @@
           <t>SYMA X5HC od 2 190 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>2190</t>
-        </is>
+      <c r="J34" t="n">
+        <v>2190</v>
       </c>
     </row>
     <row r="35" ht="66.75" customHeight="1" s="105">
@@ -7925,10 +7897,8 @@
           <t>SYMA X5Cs od 1 999 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
+      <c r="J36" t="n">
+        <v>1999</v>
       </c>
     </row>
     <row r="37" ht="66.75" customHeight="1" s="105">
@@ -7971,7 +7941,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>890</t>
+          <t>bez ceny</t>
         </is>
       </c>
     </row>
@@ -8013,10 +7983,8 @@
           <t>SJ RC T70VR RCskladem_23117559 Bílá od 3 990 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>3990</t>
-        </is>
+      <c r="J38" t="n">
+        <v>3990</v>
       </c>
     </row>
     <row r="39" ht="66.59999999999999" customHeight="1" s="105">
@@ -8086,7 +8054,7 @@
       </c>
       <c r="J40" s="106" t="inlineStr">
         <is>
-          <t>23110384</t>
+          <t>bez ceny</t>
         </is>
       </c>
       <c r="K40" s="106" t="n"/>
@@ -8130,10 +8098,8 @@
           <t>SYMA X5C od 1 105 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J41" s="106" t="inlineStr">
-        <is>
-          <t>1105</t>
-        </is>
+      <c r="J41" s="106" t="n">
+        <v>1105</v>
       </c>
       <c r="K41" s="106" t="n"/>
       <c r="L41" s="106" t="n"/>
@@ -8174,10 +8140,8 @@
           <t>SYMA X8PRO od 3 390 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J42" s="106" t="inlineStr">
-        <is>
-          <t>3390</t>
-        </is>
+      <c r="J42" s="106" t="n">
+        <v>3390</v>
       </c>
       <c r="K42" s="106" t="n"/>
       <c r="L42" s="106" t="n"/>
@@ -8218,10 +8182,8 @@
           <t>Lead Honor skládací dron Storm LH-X28 RCskladem_23130237 žluto černý od 1 690 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J43" s="106" t="inlineStr">
-        <is>
-          <t>1690</t>
-        </is>
+      <c r="J43" s="106" t="n">
+        <v>1690</v>
       </c>
       <c r="K43" s="106" t="n"/>
       <c r="L43" s="106" t="n"/>
@@ -8264,10 +8226,8 @@
           <t>Tower s HD FPV kamerou a senzory proti nárazu - RC_64551 od 2 980 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J44" s="106" t="inlineStr">
-        <is>
-          <t>2980</t>
-        </is>
+      <c r="J44" s="106" t="n">
+        <v>2980</v>
       </c>
       <c r="K44" s="106" t="n"/>
       <c r="L44" s="106" t="n"/>
@@ -8357,10 +8317,8 @@
           <t>SKY LH-X25S s perfektním barometrem a pohyblivou HD kamerou RC_23117921 od 2 490 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>2490</t>
-        </is>
+      <c r="J47" t="n">
+        <v>2490</v>
       </c>
     </row>
     <row r="48" ht="66.75" customHeight="1" s="105">
@@ -8401,10 +8359,8 @@
           <t>SYMA X56W RC_ 23124497 od 2 119 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>2119</t>
-        </is>
+      <c r="J48" t="n">
+        <v>2119</v>
       </c>
     </row>
     <row r="49" ht="66.75" customHeight="1" s="105">
@@ -8445,10 +8401,8 @@
           <t>Vodotěsný dron XBM-50 s HD kamerou - RC_48096 od 1 890 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>1890</t>
-        </is>
+      <c r="J49" t="n">
+        <v>1890</v>
       </c>
     </row>
     <row r="50" ht="66.75" customHeight="1" s="105">
@@ -8491,7 +8445,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>990</t>
+          <t>bez ceny</t>
         </is>
       </c>
     </row>
@@ -8559,7 +8513,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>1220735692</t>
+          <t>bez ceny</t>
         </is>
       </c>
     </row>
@@ -8601,10 +8555,8 @@
           <t>Tarantula x6 s HD kamerou - RC_16860 od 2 699 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>2699</t>
-        </is>
+      <c r="J53" t="n">
+        <v>2699</v>
       </c>
     </row>
     <row r="54" ht="66.75" customHeight="1" s="105">
@@ -8645,10 +8597,8 @@
           <t>Alltoys Yellow SKYking - multikoptéra s kamerou - RC_20650737 od 1 190 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>1190</t>
-        </is>
+      <c r="J54" t="n">
+        <v>1190</v>
       </c>
     </row>
     <row r="55" ht="66.75" customHeight="1" s="105">
@@ -8711,10 +8661,8 @@
           <t>SPACE TREK   HD kamera   FPV přenos   stabilizátor - RC_16714 od 3 230 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>3230</t>
-        </is>
+      <c r="J56" t="n">
+        <v>3230</v>
       </c>
     </row>
     <row r="57" ht="66.75" customHeight="1" s="105">
@@ -8810,10 +8758,8 @@
           <t>HJ Toys LiLy U-FLY DESIGNOVÝ DRON - RCskladem_23089168 od 2 390 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>2390</t>
-        </is>
+      <c r="J59" t="n">
+        <v>2390</v>
       </c>
     </row>
     <row r="60" ht="66.75" customHeight="1" s="105">
@@ -8853,10 +8799,8 @@
           <t>RCobchod Koome K800B FPV + barometr - RC_800 od 4 490 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>4490</t>
-        </is>
+      <c r="J60" t="n">
+        <v>4490</v>
       </c>
     </row>
     <row r="61" ht="66.75" customHeight="1" s="105">
@@ -8898,7 +8842,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>23094187</t>
+          <t>bez ceny</t>
         </is>
       </c>
     </row>
@@ -8939,10 +8883,8 @@
           <t>Koome Bezporuchový K300CW 31cm 2.4G RCskladem_20703447 od 2 390 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>2390</t>
-        </is>
+      <c r="J62" t="n">
+        <v>2390</v>
       </c>
     </row>
     <row r="63" ht="66.75" customHeight="1" s="105">
@@ -8982,10 +8924,8 @@
           <t>TRACKER s HD kamerou RCskladem_20735433 od 1 260 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>1260</t>
-        </is>
+      <c r="J63" t="n">
+        <v>1260</v>
       </c>
     </row>
     <row r="64" ht="66.75" customHeight="1" s="105">
@@ -9025,10 +8965,8 @@
           <t>LIDI-5 - velký dron s HD pohyblivou kamerou a barometrem - RC_46037 od 2 490 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>2490</t>
-        </is>
+      <c r="J64" t="n">
+        <v>2490</v>
       </c>
     </row>
     <row r="65" ht="66.75" customHeight="1" s="105">
@@ -9068,10 +9006,8 @@
           <t>LIDI-5 - velký dron s HD pohyblivou kamerou a barometrem - RC_46037 od 2 490 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>2490</t>
-        </is>
+      <c r="J65" t="n">
+        <v>2490</v>
       </c>
     </row>
     <row r="66" ht="66.75" customHeight="1" s="105">
@@ -9111,10 +9047,8 @@
           <t>WL Toys Dron Smart Q222 - RC_20708550 od 2 690 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>2690</t>
-        </is>
+      <c r="J66" t="n">
+        <v>2690</v>
       </c>
     </row>
     <row r="67" ht="66.75" customHeight="1" s="105">
@@ -9156,7 +9090,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>5817046</t>
+          <t>bez ceny</t>
         </is>
       </c>
     </row>
@@ -9197,10 +9131,8 @@
           <t>SKY VAMPIRE 63cm s HD kamerou a online přenosem obrazu - RCskladem_20725325 od 4 920 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>4920</t>
-        </is>
+      <c r="J68" t="n">
+        <v>4920</v>
       </c>
     </row>
     <row r="69" ht="66.75" customHeight="1" s="105">
@@ -9240,10 +9172,8 @@
           <t>HAWK-EYE FPV - HD kamera + 2 baterie navíc - RCskladem_20568886B od 3 980 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>3980</t>
-        </is>
+      <c r="J69" t="n">
+        <v>3980</v>
       </c>
     </row>
     <row r="70" ht="66.75" customHeight="1" s="105">
@@ -9285,7 +9215,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>20730897</t>
+          <t>bez ceny</t>
         </is>
       </c>
     </row>
@@ -9326,10 +9256,8 @@
           <t>MJX X400 - RC dron s online FPV přenosem na dálkové ovládání - RC_16736 od 1 790 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>1790</t>
-        </is>
+      <c r="J71" t="n">
+        <v>1790</v>
       </c>
     </row>
     <row r="72" ht="66.75" customHeight="1" s="105">
@@ -9512,10 +9440,8 @@
           <t>Elves X28GWF Skládací Dron s GPS Wifi FPV 720P RCskladem_23142096 od 4 190 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>4190</t>
-        </is>
+      <c r="J78" t="n">
+        <v>4190</v>
       </c>
     </row>
     <row r="79" ht="66.75" customHeight="1" s="105">
@@ -9557,7 +9483,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>bez ceny</t>
         </is>
       </c>
     </row>
@@ -9644,10 +9570,8 @@
           <t>SYMA X5UC od 1 490 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>1490</t>
-        </is>
+      <c r="J82" t="n">
+        <v>1490</v>
       </c>
     </row>
     <row r="83" ht="66.75" customHeight="1" s="105">
@@ -9687,10 +9611,8 @@
           <t>SYMA X8SW od 3 316 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>3316</t>
-        </is>
+      <c r="J83" t="n">
+        <v>3316</v>
       </c>
     </row>
     <row r="84" ht="66.75" customHeight="1" s="105">
@@ -9868,10 +9790,8 @@
           <t>MJX X101 - s WiFi-HD kamerou C4008 - zabiják X8C - RC_45300 od 4 490 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>4490</t>
-        </is>
+      <c r="J90" t="n">
+        <v>4490</v>
       </c>
     </row>
     <row r="91" ht="66.75" customHeight="1" s="105">
@@ -9934,10 +9854,8 @@
           <t>SKY VAMPIRE 63cm s HD kamerou RC_20725332 od 3 390 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>3390</t>
-        </is>
+      <c r="J92" t="n">
+        <v>3390</v>
       </c>
     </row>
     <row r="93" ht="66.75" customHeight="1" s="105">
@@ -10184,10 +10102,8 @@
           <t>XXL dron Dron Patriot s kamerou RCskladem_20631375 od 2 490 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>2490</t>
-        </is>
+      <c r="J102" t="n">
+        <v>2490</v>
       </c>
     </row>
     <row r="103" ht="66.75" customHeight="1" s="105">
@@ -10227,10 +10143,8 @@
           <t>SKYWALKER RC 2,4 GHz RCskladem_20568774 od 1 450 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>1450</t>
-        </is>
+      <c r="J103" t="n">
+        <v>1450</v>
       </c>
     </row>
     <row r="104" ht="66.75" customHeight="1" s="105">
@@ -10293,10 +10207,8 @@
           <t>SYMA X5UC-PRO 50 minut letu + barometr + HD kamera RCobchod - RC_67780 od 2 490 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>2490</t>
-        </is>
+      <c r="J105" t="n">
+        <v>2490</v>
       </c>
     </row>
     <row r="106" ht="66.75" customHeight="1" s="105">
@@ -10336,10 +10248,8 @@
           <t>SYMA X5cHPRO od 1 999 Kč - Heureka.cz</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
+      <c r="J106" t="n">
+        <v>1999</v>
       </c>
     </row>
     <row r="107" ht="66.75" customHeight="1" s="105">
